--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>剩余3.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费145.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余3.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余68.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,13 +493,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1267,7 +1286,7 @@
         <v>2014.06</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B42" si="10">C30</f>
+        <f t="shared" ref="B31:B44" si="10">C30</f>
         <v>12566</v>
       </c>
       <c r="C31">
@@ -1410,7 +1429,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D41" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D43" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1455,7 +1474,7 @@
         <v>350</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G41" si="18">ROUND(0.588*D37+IF(D37&gt;F37,(D37-F37)*0.3+(F37-180)*0.05,IF(D37&gt;180,(D37-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G37:G43" si="18">ROUND(0.588*D37+IF(D37&gt;F37,(D37-F37)*0.3+(F37-180)*0.05,IF(D37&gt;180,(D37-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H37">
@@ -1622,6 +1641,77 @@
       <c r="B42">
         <f t="shared" si="10"/>
         <v>15522</v>
+      </c>
+      <c r="C42">
+        <v>15764</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="16"/>
+        <v>242</v>
+      </c>
+      <c r="E42">
+        <v>145.4</v>
+      </c>
+      <c r="F42">
+        <v>350</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="18"/>
+        <v>145.4</v>
+      </c>
+      <c r="H42">
+        <f>E42-3.19</f>
+        <v>142.21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2015.06</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="10"/>
+        <v>15764</v>
+      </c>
+      <c r="C43">
+        <v>15942</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="16"/>
+        <v>178</v>
+      </c>
+      <c r="E43">
+        <v>104.66</v>
+      </c>
+      <c r="F43">
+        <v>350</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="18"/>
+        <v>104.66</v>
+      </c>
+      <c r="H43">
+        <v>103.87</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2015.07</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="10"/>
+        <v>15942</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -131,11 +131,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交费172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余68.13</t>
+    <t>交费172+196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余68.13+196</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>剩余68.13+196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余149.36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1429,7 +1433,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D43" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D44" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1474,7 +1478,7 @@
         <v>350</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G43" si="18">ROUND(0.588*D37+IF(D37&gt;F37,(D37-F37)*0.3+(F37-180)*0.05,IF(D37&gt;180,(D37-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G37:G44" si="18">ROUND(0.588*D37+IF(D37&gt;F37,(D37-F37)*0.3+(F37-180)*0.05,IF(D37&gt;180,(D37-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H37">
@@ -1712,6 +1716,26 @@
       <c r="B44">
         <f t="shared" si="10"/>
         <v>15942</v>
+      </c>
+      <c r="C44">
+        <v>16136</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="16"/>
+        <v>194</v>
+      </c>
+      <c r="E44">
+        <v>114.77</v>
+      </c>
+      <c r="F44">
+        <v>450</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="18"/>
+        <v>114.77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>剩余149.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余28.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余0.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,7 +1302,7 @@
         <v>2014.06</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B44" si="10">C30</f>
+        <f t="shared" ref="B31:B46" si="10">C30</f>
         <v>12566</v>
       </c>
       <c r="C31">
@@ -1433,7 +1445,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D44" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D46" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1478,7 +1490,7 @@
         <v>350</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G44" si="18">ROUND(0.588*D37+IF(D37&gt;F37,(D37-F37)*0.3+(F37-180)*0.05,IF(D37&gt;180,(D37-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G37:G45" si="18">ROUND(0.588*D37+IF(D37&gt;F37,(D37-F37)*0.3+(F37-180)*0.05,IF(D37&gt;180,(D37-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H37">
@@ -1736,6 +1748,67 @@
       </c>
       <c r="H44" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>2015.08</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="10"/>
+        <v>16136</v>
+      </c>
+      <c r="C45">
+        <v>16339</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="16"/>
+        <v>203</v>
+      </c>
+      <c r="E45">
+        <v>120.51</v>
+      </c>
+      <c r="F45">
+        <v>450</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="18"/>
+        <v>120.51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>2015.09</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="10"/>
+        <v>16339</v>
+      </c>
+      <c r="C46">
+        <v>16555</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="16"/>
+        <v>216</v>
+      </c>
+      <c r="E46">
+        <v>128.81</v>
+      </c>
+      <c r="F46">
+        <v>450</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
+        <v>128.81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>剩余0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费61.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余61.49</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1349,7 +1357,7 @@
         <v>109.03</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2014.08</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>184.95</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2014.09</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>139.02000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2014.11</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2014.12</v>
       </c>
@@ -1504,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2015.01</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2015.02</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2015.03</v>
       </c>
@@ -1614,7 +1622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2015.04</v>
       </c>
@@ -1650,7 +1658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2015.05</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2015.06</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2015.07</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2015.08</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2015.09</v>
       </c>
@@ -1809,6 +1817,12 @@
       </c>
       <c r="I46" t="s">
         <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>剩余61.49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余5.65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,11 +218,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1453,7 +1468,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D46" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D47" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1809,7 +1824,7 @@
         <v>450</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G46:G47" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H46" t="s">
@@ -1823,6 +1838,38 @@
       </c>
       <c r="K46" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="20">C46</f>
+        <v>16555</v>
+      </c>
+      <c r="C47">
+        <v>16718</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="16"/>
+        <v>163</v>
+      </c>
+      <c r="E47">
+        <v>95.84</v>
+      </c>
+      <c r="F47">
+        <v>350</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="19"/>
+        <v>95.84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>剩余5.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费80.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1468,7 +1476,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D47" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D48" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1824,7 +1832,7 @@
         <v>450</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G47" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G46:G48" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H46" t="s">
@@ -1845,7 +1853,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="20">C46</f>
+        <f t="shared" ref="B47:B49" si="20">C46</f>
         <v>16555</v>
       </c>
       <c r="C47">
@@ -1870,6 +1878,47 @@
       </c>
       <c r="I47" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>2015.11</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="20"/>
+        <v>16718</v>
+      </c>
+      <c r="C48">
+        <v>16864</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="16"/>
+        <v>146</v>
+      </c>
+      <c r="E48">
+        <v>85.85</v>
+      </c>
+      <c r="F48">
+        <v>350</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="19"/>
+        <v>85.85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>2015.12</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="20"/>
+        <v>16864</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>剩余0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费163.54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1476,7 +1480,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D48" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D49" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1832,7 +1836,7 @@
         <v>450</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G48" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G46:G49" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H46" t="s">
@@ -1853,7 +1857,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B49" si="20">C46</f>
+        <f t="shared" ref="B47:B50" si="20">C46</f>
         <v>16555</v>
       </c>
       <c r="C47">
@@ -1912,13 +1916,45 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2015.12</v>
       </c>
       <c r="B49">
         <f t="shared" si="20"/>
         <v>16864</v>
+      </c>
+      <c r="C49">
+        <v>17134</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="16"/>
+        <v>270</v>
+      </c>
+      <c r="E49">
+        <v>163.54</v>
+      </c>
+      <c r="F49">
+        <v>350</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="19"/>
+        <v>163.26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2016.01</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="20"/>
+        <v>17134</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>交费163.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费255.41+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,15 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1480,7 +1489,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D49" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D50" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1836,7 +1845,7 @@
         <v>450</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G49" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G46:G50" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H46" t="s">
@@ -1857,7 +1866,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B50" si="20">C46</f>
+        <f t="shared" ref="B47:B51" si="20">C46</f>
         <v>16555</v>
       </c>
       <c r="C47">
@@ -1955,6 +1964,38 @@
       <c r="B50">
         <f t="shared" si="20"/>
         <v>17134</v>
+      </c>
+      <c r="C50">
+        <v>17552</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="16"/>
+        <v>418</v>
+      </c>
+      <c r="E50">
+        <v>255.41</v>
+      </c>
+      <c r="F50">
+        <v>350</v>
+      </c>
+      <c r="G50">
+        <f>ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-180)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
+        <v>274.68</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2016.02</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="20"/>
+        <v>17552</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -187,11 +187,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交费255.41+18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余18</t>
+    <t>交费255.41+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +555,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1845,7 +1845,7 @@
         <v>450</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G50" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
+        <f t="shared" ref="G46:G49" si="19">ROUND(0.588*D46+IF(D46&gt;F46,(D46-F46)*0.3+(F46-180)*0.05,IF(D46&gt;180,(D46-180)*0.05,0)),2)</f>
         <v>128.81</v>
       </c>
       <c r="H46" t="s">
@@ -1976,11 +1976,11 @@
         <v>255.41</v>
       </c>
       <c r="F50">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G50">
-        <f>ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-180)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
-        <v>274.68</v>
+        <f>ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
+        <v>256.68</v>
       </c>
       <c r="H50" t="s">
         <v>41</v>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>剩余9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费288.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,7 +1497,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D50" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D51" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1866,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B51" si="20">C46</f>
+        <f t="shared" ref="B47:B52" si="20">C46</f>
         <v>16555</v>
       </c>
       <c r="C47">
@@ -1996,6 +2004,38 @@
       <c r="B51">
         <f t="shared" si="20"/>
         <v>17552</v>
+      </c>
+      <c r="C51">
+        <v>18034</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="16"/>
+        <v>482</v>
+      </c>
+      <c r="E51">
+        <v>305.52</v>
+      </c>
+      <c r="F51">
+        <v>450</v>
+      </c>
+      <c r="G51">
+        <f>ROUND(0.588*D51+IF(D51&gt;F51,(D51-F51)*0.3+(F51-200)*0.05,IF(D51&gt;200,(D51-200)*0.05,0)),2)</f>
+        <v>305.52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>2016.03</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="20"/>
+        <v>18034</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>剩余0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费180.76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,9 +564,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1501,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D51" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D52" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1874,7 +1878,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B52" si="20">C46</f>
+        <f t="shared" ref="B47:B53" si="20">C46</f>
         <v>16555</v>
       </c>
       <c r="C47">
@@ -2036,6 +2040,38 @@
       <c r="B52">
         <f t="shared" si="20"/>
         <v>18034</v>
+      </c>
+      <c r="C52">
+        <v>18333</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="16"/>
+        <v>299</v>
+      </c>
+      <c r="E52">
+        <v>180.76</v>
+      </c>
+      <c r="F52">
+        <v>450</v>
+      </c>
+      <c r="G52">
+        <f>ROUND(0.588*D52+IF(D52&gt;F52,(D52-F52)*0.3+(F52-200)*0.05,IF(D52&gt;200,(D52-200)*0.05,0)),2)</f>
+        <v>180.76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2016.04</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="20"/>
+        <v>18333</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>交费180.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费123.34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="A55" sqref="A55:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,7 +1505,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D52" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D54" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1878,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B53" si="20">C46</f>
+        <f t="shared" ref="B47:B54" si="20">C46</f>
         <v>16555</v>
       </c>
       <c r="C47">
@@ -2072,6 +2076,64 @@
       <c r="B53">
         <f t="shared" si="20"/>
         <v>18333</v>
+      </c>
+      <c r="C53">
+        <v>18583</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="E53">
+        <v>149.5</v>
+      </c>
+      <c r="F53">
+        <v>350</v>
+      </c>
+      <c r="G53">
+        <f>ROUND(0.588*D53+IF(D53&gt;F53,(D53-F53)*0.3+(F53-200)*0.05,IF(D53&gt;200,(D53-200)*0.05,0)),2)</f>
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2015.05</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="20"/>
+        <v>18583</v>
+      </c>
+      <c r="C54">
+        <v>18792</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="16"/>
+        <v>209</v>
+      </c>
+      <c r="E54">
+        <v>123.34</v>
+      </c>
+      <c r="F54">
+        <v>350</v>
+      </c>
+      <c r="G54">
+        <f>ROUND(0.588*D54+IF(D54&gt;F54,(D54-F54)*0.3+(F54-200)*0.05,IF(D54&gt;200,(D54-200)*0.05,0)),2)</f>
+        <v>123.34</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2015.05</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="21">C54</f>
+        <v>18792</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,7 +1505,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D54" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D55" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1995,7 +1995,7 @@
         <v>450</v>
       </c>
       <c r="G50">
-        <f>ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G50:G55" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
         <v>256.68</v>
       </c>
       <c r="H50" t="s">
@@ -2027,7 +2027,7 @@
         <v>450</v>
       </c>
       <c r="G51">
-        <f>ROUND(0.588*D51+IF(D51&gt;F51,(D51-F51)*0.3+(F51-200)*0.05,IF(D51&gt;200,(D51-200)*0.05,0)),2)</f>
+        <f t="shared" si="21"/>
         <v>305.52</v>
       </c>
       <c r="H51" t="s">
@@ -2059,7 +2059,7 @@
         <v>450</v>
       </c>
       <c r="G52">
-        <f>ROUND(0.588*D52+IF(D52&gt;F52,(D52-F52)*0.3+(F52-200)*0.05,IF(D52&gt;200,(D52-200)*0.05,0)),2)</f>
+        <f t="shared" si="21"/>
         <v>180.76</v>
       </c>
       <c r="H52" t="s">
@@ -2091,7 +2091,7 @@
         <v>350</v>
       </c>
       <c r="G53">
-        <f>ROUND(0.588*D53+IF(D53&gt;F53,(D53-F53)*0.3+(F53-200)*0.05,IF(D53&gt;200,(D53-200)*0.05,0)),2)</f>
+        <f t="shared" si="21"/>
         <v>149.5</v>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>350</v>
       </c>
       <c r="G54">
-        <f>ROUND(0.588*D54+IF(D54&gt;F54,(D54-F54)*0.3+(F54-200)*0.05,IF(D54&gt;200,(D54-200)*0.05,0)),2)</f>
+        <f t="shared" si="21"/>
         <v>123.34</v>
       </c>
       <c r="H54" t="s">
@@ -2129,11 +2129,37 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>2015.05</v>
+        <v>2015.06</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55" si="21">C54</f>
+        <f t="shared" ref="B55:B56" si="22">C54</f>
         <v>18792</v>
+      </c>
+      <c r="C55">
+        <v>18963</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+      <c r="E55">
+        <v>100.55</v>
+      </c>
+      <c r="F55">
+        <v>350</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="21"/>
+        <v>100.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>2015.07</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="22"/>
+        <v>18963</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,7 +1505,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D55" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D56" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1995,7 +1995,7 @@
         <v>450</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G55" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G50:G56" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
         <v>256.68</v>
       </c>
       <c r="H50" t="s">
@@ -2160,6 +2160,23 @@
       <c r="B56">
         <f t="shared" si="22"/>
         <v>18963</v>
+      </c>
+      <c r="C56">
+        <v>19155</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="16"/>
+        <v>192</v>
+      </c>
+      <c r="E56">
+        <v>112.9</v>
+      </c>
+      <c r="F56">
+        <v>350</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="21"/>
+        <v>112.9</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,7 +1505,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D56" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D58" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1995,7 +1995,7 @@
         <v>450</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G56" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G50:G58" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
         <v>256.68</v>
       </c>
       <c r="H50" t="s">
@@ -2132,7 +2132,7 @@
         <v>2015.06</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:B56" si="22">C54</f>
+        <f t="shared" ref="B55:B58" si="22">C54</f>
         <v>18792</v>
       </c>
       <c r="C55">
@@ -2172,11 +2172,63 @@
         <v>112.9</v>
       </c>
       <c r="F56">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G56">
         <f t="shared" si="21"/>
         <v>112.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2015.08</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="22"/>
+        <v>19155</v>
+      </c>
+      <c r="C57">
+        <v>19510</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="16"/>
+        <v>355</v>
+      </c>
+      <c r="E57">
+        <v>216.49</v>
+      </c>
+      <c r="F57">
+        <v>450</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="21"/>
+        <v>216.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2015.09</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="22"/>
+        <v>19510</v>
+      </c>
+      <c r="C58">
+        <v>19825</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="16"/>
+        <v>315</v>
+      </c>
+      <c r="E58">
+        <v>190.97</v>
+      </c>
+      <c r="F58">
+        <v>450</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="21"/>
+        <v>190.97</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,26 @@
   </si>
   <si>
     <t>交费123.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费328.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余95.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费251.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余58.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,7 +1525,7 @@
         <v>13825</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D58" si="16">C36-B36</f>
+        <f t="shared" ref="D36:D62" si="16">C36-B36</f>
         <v>152</v>
       </c>
       <c r="E36">
@@ -1995,7 +2015,7 @@
         <v>450</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G58" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G50:G62" si="21">ROUND(0.588*D50+IF(D50&gt;F50,(D50-F50)*0.3+(F50-200)*0.05,IF(D50&gt;200,(D50-200)*0.05,0)),2)</f>
         <v>256.68</v>
       </c>
       <c r="H50" t="s">
@@ -2097,7 +2117,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>2015.05</v>
+        <v>2016.05</v>
       </c>
       <c r="B54">
         <f t="shared" si="20"/>
@@ -2129,7 +2149,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>2015.06</v>
+        <v>2016.06</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55:B58" si="22">C54</f>
@@ -2155,7 +2175,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>2015.07</v>
+        <v>2016.07</v>
       </c>
       <c r="B56">
         <f t="shared" si="22"/>
@@ -2181,7 +2201,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>2015.08</v>
+        <v>2016.08</v>
       </c>
       <c r="B57">
         <f t="shared" si="22"/>
@@ -2207,7 +2227,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>2015.09</v>
+        <v>2016.09</v>
       </c>
       <c r="B58">
         <f t="shared" si="22"/>
@@ -2229,6 +2249,157 @@
       <c r="G58">
         <f t="shared" si="21"/>
         <v>190.97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:B63" si="23">C58</f>
+        <v>19825</v>
+      </c>
+      <c r="C59">
+        <v>19996</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="16"/>
+        <v>171</v>
+      </c>
+      <c r="E59">
+        <v>100.55</v>
+      </c>
+      <c r="F59">
+        <v>350</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="21"/>
+        <v>100.55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>2016.11</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="23"/>
+        <v>19996</v>
+      </c>
+      <c r="C60">
+        <v>20212</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="16"/>
+        <v>216</v>
+      </c>
+      <c r="E60">
+        <v>127.81</v>
+      </c>
+      <c r="F60">
+        <v>350</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="21"/>
+        <v>127.81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>2016.12</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="23"/>
+        <v>20212</v>
+      </c>
+      <c r="C61">
+        <v>20508</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="16"/>
+        <v>296</v>
+      </c>
+      <c r="E61">
+        <v>178.85</v>
+      </c>
+      <c r="F61">
+        <v>350</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="21"/>
+        <v>178.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>2017.01</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="23"/>
+        <v>20508</v>
+      </c>
+      <c r="C62">
+        <v>20889</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="16"/>
+        <v>381</v>
+      </c>
+      <c r="E62">
+        <v>328.92</v>
+      </c>
+      <c r="F62">
+        <v>450</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="21"/>
+        <v>233.08</v>
+      </c>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>2017.02</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="23"/>
+        <v>20889</v>
+      </c>
+      <c r="C63">
+        <v>21352</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63" si="24">C63-B63</f>
+        <v>463</v>
+      </c>
+      <c r="E63">
+        <v>288.64</v>
+      </c>
+      <c r="F63">
+        <v>450</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
+        <v>288.64</v>
+      </c>
+      <c r="H63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>2017.03</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="26">C63</f>
+        <v>21352</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2383,7 +2383,7 @@
         <v>450</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G63:G64" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
         <v>288.64</v>
       </c>
       <c r="H63" t="s">
@@ -2400,6 +2400,20 @@
       <c r="B64">
         <f t="shared" ref="B64" si="26">C63</f>
         <v>21352</v>
+      </c>
+      <c r="D64">
+        <v>333</v>
+      </c>
+      <c r="E64">
+        <f>58.8+143.65</f>
+        <v>202.45</v>
+      </c>
+      <c r="F64">
+        <v>450</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="25"/>
+        <v>202.45</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2373,7 +2373,7 @@
         <v>21352</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63" si="24">C63-B63</f>
+        <f t="shared" ref="D63:D64" si="24">C63-B63</f>
         <v>463</v>
       </c>
       <c r="E63">
@@ -2398,22 +2398,34 @@
         <v>2017.03</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64" si="26">C63</f>
+        <f t="shared" ref="B64:B65" si="26">C63</f>
         <v>21352</v>
       </c>
+      <c r="C64">
+        <v>21754</v>
+      </c>
       <c r="D64">
-        <v>333</v>
+        <f t="shared" si="24"/>
+        <v>402</v>
       </c>
       <c r="E64">
-        <f>58.8+143.65</f>
-        <v>202.45</v>
+        <v>246.48</v>
       </c>
       <c r="F64">
         <v>450</v>
       </c>
       <c r="G64">
         <f t="shared" si="25"/>
-        <v>202.45</v>
+        <v>246.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>2017.04</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="26"/>
+        <v>21754</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>2012.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>剩余58.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费251.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余63.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +599,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2383,7 +2391,7 @@
         <v>450</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G64" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G63:G65" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
         <v>288.64</v>
       </c>
       <c r="H63" t="s">
@@ -2418,14 +2426,34 @@
         <f t="shared" si="25"/>
         <v>246.48</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>2017.04</v>
       </c>
       <c r="B65">
         <f t="shared" si="26"/>
         <v>21754</v>
+      </c>
+      <c r="D65">
+        <v>267</v>
+      </c>
+      <c r="E65">
+        <f>63.5+96.85</f>
+        <v>160.35</v>
+      </c>
+      <c r="F65">
+        <v>350</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="25"/>
+        <v>160.35</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2381,7 +2381,7 @@
         <v>21352</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D64" si="24">C63-B63</f>
+        <f t="shared" ref="D63:D65" si="24">C63-B63</f>
         <v>463</v>
       </c>
       <c r="E63">
@@ -2441,19 +2441,31 @@
         <f t="shared" si="26"/>
         <v>21754</v>
       </c>
+      <c r="C65">
+        <v>22091</v>
+      </c>
       <c r="D65">
-        <v>267</v>
+        <f t="shared" si="24"/>
+        <v>337</v>
       </c>
       <c r="E65">
-        <f>63.5+96.85</f>
-        <v>160.35</v>
+        <v>205.01</v>
       </c>
       <c r="F65">
         <v>350</v>
       </c>
       <c r="G65">
         <f t="shared" si="25"/>
-        <v>160.35</v>
+        <v>205.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>2017.05</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="27">C65</f>
+        <v>22091</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/电费.xlsx
+++ b/我的家/电费.xlsx
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2381,7 +2381,7 @@
         <v>21352</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D65" si="24">C63-B63</f>
+        <f t="shared" ref="D63:D66" si="24">C63-B63</f>
         <v>463</v>
       </c>
       <c r="E63">
@@ -2391,7 +2391,7 @@
         <v>450</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G65" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
+        <f t="shared" ref="G63:G66" si="25">ROUND(0.588*D63+IF(D63&gt;F63,(D63-F63)*0.3+(F63-200)*0.05,IF(D63&gt;200,(D63-200)*0.05,0)),2)</f>
         <v>288.64</v>
       </c>
       <c r="H63" t="s">
@@ -2464,8 +2464,34 @@
         <v>2017.05</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66" si="27">C65</f>
+        <f t="shared" ref="B66:B67" si="27">C65</f>
         <v>22091</v>
+      </c>
+      <c r="C66">
+        <v>22303</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="24"/>
+        <v>212</v>
+      </c>
+      <c r="E66">
+        <v>125.26</v>
+      </c>
+      <c r="F66">
+        <v>350</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="25"/>
+        <v>125.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>2017.06</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="27"/>
+        <v>22303</v>
       </c>
     </row>
   </sheetData>
